--- a/人均GDP+人口集聚程度+产业高级化+FDI+人均道路面积/PSM_平衡性检验.xlsx
+++ b/人均GDP+人口集聚程度+产业高级化+FDI+人均道路面积/PSM_平衡性检验.xlsx
@@ -505,19 +505,19 @@
         <v>1.032650699690565e-31</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39633668446489</v>
+        <v>10.3820600979003</v>
       </c>
       <c r="G2" t="n">
-        <v>10.42416133250225</v>
+        <v>10.41293516549556</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.279141237603814</v>
+        <v>-4.778764464877805</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2472252533489725</v>
+        <v>0.2037989839426223</v>
       </c>
       <c r="J2" t="n">
-        <v>110.5623526146911</v>
+        <v>111.7955899415134</v>
       </c>
     </row>
     <row r="3">
@@ -539,19 +539,19 @@
         <v>3.237490782957203e-29</v>
       </c>
       <c r="F3" t="n">
-        <v>5.980534029000856</v>
+        <v>5.9509265180049</v>
       </c>
       <c r="G3" t="n">
-        <v>5.989194351313066</v>
+        <v>5.971652658836139</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9597338437952384</v>
+        <v>-2.328509166488459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7952123007576875</v>
+        <v>0.5357315350303358</v>
       </c>
       <c r="J3" t="n">
-        <v>102.4751694696738</v>
+        <v>106.0052636843111</v>
       </c>
     </row>
     <row r="4">
@@ -573,19 +573,19 @@
         <v>2.674328111445015e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>1.033792545088037</v>
+        <v>1.02690551715965</v>
       </c>
       <c r="G4" t="n">
-        <v>1.005478305491286</v>
+        <v>0.9944637996789437</v>
       </c>
       <c r="H4" t="n">
-        <v>5.455559657481628</v>
+        <v>6.27485646905298</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1401792658655657</v>
+        <v>0.09521999039762066</v>
       </c>
       <c r="J4" t="n">
-        <v>75.08057632486799</v>
+        <v>71.33826469324048</v>
       </c>
     </row>
     <row r="5">
@@ -607,19 +607,19 @@
         <v>1.39238801266112e-23</v>
       </c>
       <c r="F5" t="n">
-        <v>5.561394236468672</v>
+        <v>5.531227253584634</v>
       </c>
       <c r="G5" t="n">
-        <v>5.74440468264417</v>
+        <v>5.70556567247731</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.22034253446556</v>
+        <v>-9.833399633239548</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005742475112748569</v>
+        <v>0.008956096653630261</v>
       </c>
       <c r="J5" t="n">
-        <v>129.385263815784</v>
+        <v>128.2727356205863</v>
       </c>
     </row>
     <row r="6">
@@ -641,19 +641,19 @@
         <v>1.072538265264596e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.84558777468102</v>
+        <v>2.850638183183432</v>
       </c>
       <c r="G6" t="n">
-        <v>2.880050742700052</v>
+        <v>2.885552124568811</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.898580745542915</v>
+        <v>-8.998355131043636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01615757059670168</v>
+        <v>0.01675507874698744</v>
       </c>
       <c r="J6" t="n">
-        <v>-59.84355258742965</v>
+        <v>-59.39330271286533</v>
       </c>
     </row>
   </sheetData>
